--- a/Database/Base de datos TFG.xlsx
+++ b/Database/Base de datos TFG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\OneDrive\Escritorio\TFG\TeachHelper\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0F3514-DC01-42E3-AA76-E2743FBB3319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDC32BB-B440-410C-8399-623A3B43BEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{2D1DCC67-4978-457B-B669-AB2B45A9E829}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>ALUMNO</t>
   </si>
@@ -75,9 +75,6 @@
     <t>- idPrueba *</t>
   </si>
   <si>
-    <t>- fecha</t>
-  </si>
-  <si>
     <t>COMPETENCIA</t>
   </si>
   <si>
@@ -123,7 +120,28 @@
     <t>- contraseña</t>
   </si>
   <si>
-    <t>- descripción</t>
+    <t>- nombreAsignatura</t>
+  </si>
+  <si>
+    <t>- nombreCompetencia</t>
+  </si>
+  <si>
+    <t>- descripcionCompetencia</t>
+  </si>
+  <si>
+    <t>- nombrePrueba</t>
+  </si>
+  <si>
+    <t>- fechaPrueba</t>
+  </si>
+  <si>
+    <t>- nombreCurso</t>
+  </si>
+  <si>
+    <t>DATOSSESION</t>
+  </si>
+  <si>
+    <t>ASIGNATURASENCURSO</t>
   </si>
 </sst>
 </file>
@@ -300,10 +318,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -319,7 +337,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="8039100" y="3943350"/>
-          <a:ext cx="914400" cy="247650"/>
+          <a:ext cx="1790700" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -350,7 +368,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -394,13 +412,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -444,14 +462,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -468,8 +486,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11496675" y="5876925"/>
-          <a:ext cx="152400" cy="762000"/>
+          <a:off x="12372975" y="5676900"/>
+          <a:ext cx="295275" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -494,13 +512,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -544,13 +562,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -594,13 +612,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -644,13 +662,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1390651</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -694,13 +712,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -744,13 +762,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -794,23 +812,87 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>895349</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CuadroTexto 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECFD203-A6D4-4A66-A9D7-7BA675DD5CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648824" y="3962401"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1485899</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CuadroTexto 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8205C34-E586-4A0C-ACDE-CA31CB98063F}"/>
+        <xdr:cNvPr id="43" name="CuadroTexto 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FE3DB6-B789-4C51-9A8A-A6374217A560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -818,7 +900,71 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8000999" y="3905251"/>
+          <a:off x="10448924" y="3676651"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>933449</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="CuadroTexto 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45ED5547-637A-49CE-966F-25C346ADFA09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448549" y="4857751"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -859,22 +1005,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CuadroTexto 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECFD203-A6D4-4A66-A9D7-7BA675DD5CFE}"/>
+        <xdr:cNvPr id="47" name="CuadroTexto 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A98CD46-86A4-4346-840D-958EA25FDE93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -882,7 +1028,135 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8734424" y="3714751"/>
+          <a:off x="8820149" y="5172076"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>876299</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="CuadroTexto 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10CB0CC-81FA-4AC2-BD59-C4917F48DCEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915399" y="5829301"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CuadroTexto 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2ED52B-EE7E-4E66-80B7-FD308CD9E2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982324" y="5181601"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -922,23 +1196,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1485899</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CuadroTexto 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FE3DB6-B789-4C51-9A8A-A6374217A560}"/>
+        <xdr:cNvPr id="50" name="CuadroTexto 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC81730B-EBF1-4538-83EF-8F25325D449C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,7 +1220,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10448924" y="3676651"/>
+          <a:off x="11734800" y="1905000"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -986,23 +1260,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1095374</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CuadroTexto 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45ED5547-637A-49CE-966F-25C346ADFA09}"/>
+        <xdr:cNvPr id="51" name="CuadroTexto 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41559E23-6F1E-4CA2-8006-2A8D903D192B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1284,455 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7448549" y="4857751"/>
+          <a:off x="11858625" y="2695575"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="CuadroTexto 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B67869-98DE-4EEF-AD99-A8085D9A4875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12477750" y="1914525"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="CuadroTexto 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321EC03B-8CB4-469B-A0C5-9D3E0B0FD53C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14363700" y="2505075"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="CuadroTexto 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE08B95-5FFA-443F-A6C1-5A8C5FB984B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14373225" y="3486150"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="CuadroTexto 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BE001E-D6DC-4B3A-BE56-BA6B66C1A7EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14658975" y="4648200"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="CuadroTexto 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E115095-9A77-4339-9172-34DBCA91A886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="5629275"/>
+          <a:ext cx="161925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="CuadroTexto 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C612770-6A52-48A3-BA5A-DF3AE7465A2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11639550" y="3676650"/>
+          <a:ext cx="161925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="CuadroTexto 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD2F71F-89D5-4B53-BC57-1041BD9C8DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534774" y="4619626"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1050,23 +1772,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1323974</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1485899</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CuadroTexto 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A98CD46-86A4-4346-840D-958EA25FDE93}"/>
+        <xdr:cNvPr id="59" name="CuadroTexto 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093751D0-E701-43D5-BBC3-35821D0407EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,7 +1796,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7839074" y="5343526"/>
+          <a:off x="11506199" y="6391276"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1114,23 +1836,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>876299</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CuadroTexto 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10CB0CC-81FA-4AC2-BD59-C4917F48DCEA}"/>
+        <xdr:cNvPr id="60" name="CuadroTexto 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1507209-BB09-43E7-913D-8104EED8A51B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1860,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915399" y="5829301"/>
+          <a:off x="11010899" y="3305176"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1178,23 +1900,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CuadroTexto 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2ED52B-EE7E-4E66-80B7-FD308CD9E2EA}"/>
+        <xdr:cNvPr id="61" name="CuadroTexto 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E471422-0CEB-4C60-BBE6-5E4050DD11E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1924,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10982324" y="5181601"/>
+          <a:off x="13735050" y="4857750"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1242,23 +1964,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CuadroTexto 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC81730B-EBF1-4538-83EF-8F25325D449C}"/>
+        <xdr:cNvPr id="62" name="CuadroTexto 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810FF553-375B-4F12-A017-64BAA8904250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11734800" y="1905000"/>
+          <a:off x="13268325" y="5219700"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1307,22 +2029,72 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector recto 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2273EBBD-6DD8-404E-B3B5-9F877D3313F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10467975" y="6877050"/>
+          <a:ext cx="733425" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1457324</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CuadroTexto 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41559E23-6F1E-4CA2-8006-2A8D903D192B}"/>
+        <xdr:cNvPr id="35" name="CuadroTexto 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EED80B-9C9E-423E-AE3C-7577F64D5C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,455 +2102,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11858625" y="2695575"/>
-          <a:ext cx="161925" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CuadroTexto 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B67869-98DE-4EEF-AD99-A8085D9A4875}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12477750" y="1914525"/>
-          <a:ext cx="161925" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CuadroTexto 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321EC03B-8CB4-469B-A0C5-9D3E0B0FD53C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14363700" y="2505075"/>
-          <a:ext cx="161925" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CuadroTexto 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE08B95-5FFA-443F-A6C1-5A8C5FB984B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14373225" y="3486150"/>
-          <a:ext cx="161925" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CuadroTexto 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BE001E-D6DC-4B3A-BE56-BA6B66C1A7EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14658975" y="4648200"/>
-          <a:ext cx="161925" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CuadroTexto 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E115095-9A77-4339-9172-34DBCA91A886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11601450" y="5829300"/>
-          <a:ext cx="161925" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CuadroTexto 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C612770-6A52-48A3-BA5A-DF3AE7465A2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11639550" y="3676650"/>
-          <a:ext cx="161925" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CuadroTexto 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD2F71F-89D5-4B53-BC57-1041BD9C8DAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11534774" y="4619626"/>
+          <a:off x="10420349" y="6629401"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1819,22 +2143,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="CuadroTexto 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093751D0-E701-43D5-BBC3-35821D0407EB}"/>
+        <xdr:cNvPr id="36" name="CuadroTexto 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0872C2A8-B09A-4441-BC57-143343BD5B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +2166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11506199" y="6391276"/>
+          <a:off x="11020424" y="6915151"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1882,23 +2206,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conector recto 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4600D3-2A40-4353-9646-ADE18DDE740D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8039100" y="5848350"/>
+          <a:ext cx="866775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1514474</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="CuadroTexto 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1507209-BB09-43E7-913D-8104EED8A51B}"/>
+        <xdr:cNvPr id="39" name="CuadroTexto 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE5DE90-4929-4276-8641-018DF5B5E2A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +2280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11010899" y="3305176"/>
+          <a:off x="8029574" y="4162426"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1946,23 +2320,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="CuadroTexto 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E471422-0CEB-4C60-BBE6-5E4050DD11E7}"/>
+        <xdr:cNvPr id="40" name="CuadroTexto 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91D87D6-ED72-4F0F-87AA-A0D294946587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +2344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13735050" y="4857750"/>
+          <a:off x="8724899" y="5838826"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2001,7 +2375,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>*</a:t>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2010,23 +2384,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2066925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1457324</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CuadroTexto 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810FF553-375B-4F12-A017-64BAA8904250}"/>
+        <xdr:cNvPr id="44" name="CuadroTexto 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7DEA06-3476-4412-AB71-F9896B485004}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2408,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13268325" y="5219700"/>
+          <a:off x="7972424" y="5915026"/>
           <a:ext cx="161925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2372,10 +2746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C120B5B-FE57-4CF0-B3C9-83FCD0177577}">
-  <dimension ref="I7:O38"/>
+  <dimension ref="I7:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,201 +2757,220 @@
     <col min="1" max="7" width="11.42578125" style="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="5" t="s">
+    <row r="7" spans="14:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="14:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="O9" s="7"/>
     </row>
-    <row r="9" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="7"/>
+    <row r="10" spans="14:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="7"/>
     </row>
-    <row r="10" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="7"/>
+    <row r="14" spans="14:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="14:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="14" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="5" t="s">
+    <row r="16" spans="14:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="8" t="s">
-        <v>15</v>
+    <row r="17" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="17" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="3" t="s">
-        <v>2</v>
+    <row r="18" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="18" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="L19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="J20" s="7"/>
+      <c r="L20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="L21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="L22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I23" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M26" s="5" t="s">
+    <row r="26" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="5" t="s">
-        <v>23</v>
+      <c r="O26" s="6"/>
+      <c r="P26" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="M27" s="3" t="s">
+    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="N27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="7"/>
+      <c r="P27" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I32" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="O35" s="2"/>
     </row>
-    <row r="28" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="4" t="s">
-        <v>16</v>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="L36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="29" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J31" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J32" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="13:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="13:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M36" s="3" t="s">
+    <row r="37" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M37" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="13:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M38" s="4" t="s">
-        <v>16</v>
+      <c r="N37" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Base de datos TFG.xlsx
+++ b/Database/Base de datos TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\OneDrive\Escritorio\TFG\TeachHelper\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDC32BB-B440-410C-8399-623A3B43BEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBF7185-B5CA-4080-9C36-C026D89689D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{2D1DCC67-4978-457B-B669-AB2B45A9E829}"/>
   </bookViews>
@@ -111,12 +111,6 @@
     <t>- idCompetencia</t>
   </si>
   <si>
-    <t>PROFESOR</t>
-  </si>
-  <si>
-    <t>- idProfesor *</t>
-  </si>
-  <si>
     <t>- contraseña</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>ASIGNATURASENCURSO</t>
+  </si>
+  <si>
+    <t>MAESTRO</t>
+  </si>
+  <si>
+    <t>- idMaestro *</t>
   </si>
 </sst>
 </file>
@@ -2749,7 +2749,7 @@
   <dimension ref="I7:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2816,11 +2816,11 @@
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O19" s="7"/>
     </row>
@@ -2917,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O29" s="7"/>
     </row>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="31" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="9:16" x14ac:dyDescent="0.25">
@@ -2950,24 +2950,24 @@
     </row>
     <row r="35" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="9:15" x14ac:dyDescent="0.25">
       <c r="L36" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L37" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>15</v>
